--- a/TP2/Ej1_Bodes/NoInversor_G0.88_OK.xlsx
+++ b/TP2/Ej1_Bodes/NoInversor_G0.88_OK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF30B3A-0BAE-4EEF-B5FA-4C04B3895635}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858C0056-0600-4293-BA77-A703B81498C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,15 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Gain</t>
   </si>
   <si>
     <t>freq</t>
-  </si>
-  <si>
-    <t>amplitud maxima pico</t>
   </si>
   <si>
     <t>vpp</t>
@@ -51,13 +48,30 @@
   <si>
     <t>phase</t>
   </si>
+  <si>
+    <t>amp maxima pico</t>
+  </si>
+  <si>
+    <t>vd</t>
+  </si>
+  <si>
+    <t>Zinp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -85,8 +99,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,321 +388,577 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J12"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G12"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>0.88</v>
       </c>
-      <c r="C3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
         <v>100000</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f>500000/(2*PI()*C3*A3)</f>
         <v>0.90428944938576905</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
         <f>2*D3</f>
         <v>1.8085788987715381</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0.5</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>0.3</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>-8</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1">
+        <f>(H3*12000)/(H3-L3)</f>
+        <v>12000</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>0.88</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
         <v>300000</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" ref="D4:D12" si="0">500000/(2*PI()*C4*A4)</f>
         <v>0.30142981646192296</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
         <f t="shared" ref="F4:F12" si="1">2*D4</f>
         <v>0.60285963292384592</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>0.5</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>0.3</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>-24</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M12" si="2">(H4*12000)/(H4-L4)</f>
+        <v>12000</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>0.88</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
         <v>500000</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>0.18085788987715379</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
         <v>0.36171577975430758</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>0.5</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>0.3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>-1.7</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>-55</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>0.88</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
         <v>700000</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>0.12918420705510986</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
         <f t="shared" si="1"/>
         <v>0.25836841411021971</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0.2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>0.2</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>-2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>-80</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>0.88</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
         <v>900000</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>0.10047660548730768</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
         <v>0.20095321097461535</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0.2</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>0.12</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>-2.4</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>-119</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>0.88</v>
       </c>
-      <c r="C8">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
         <v>950000</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>9.5188363093238831E-2</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
         <v>0.19037672618647766</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>0.2</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>0.12</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>-3.1</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>-125</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>0.88</v>
       </c>
-      <c r="C9">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
         <v>1000000</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>9.0428944938576894E-2</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
         <f t="shared" si="1"/>
         <v>0.18085788987715379</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>0.2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>0.12</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>-3.8</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>-132</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>0.88</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
         <v>1100000</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>8.2208131762342637E-2</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
         <f t="shared" si="1"/>
         <v>0.16441626352468527</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0.2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>0.12</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>-5</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>-140</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>0.88</v>
       </c>
-      <c r="C11">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
         <v>1300000</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>6.9560726875828385E-2</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
         <f t="shared" si="1"/>
         <v>0.13912145375165677</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>0.2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>0.12</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>-7.4</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>-160</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>0.88</v>
       </c>
-      <c r="C12">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
         <v>1500000</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>6.0285963292384601E-2</v>
       </c>
-      <c r="F12">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
         <f t="shared" si="1"/>
         <v>0.1205719265847692</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>0.2</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>0.12</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>-10</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>-178</v>
       </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TP2/Ej1_Bodes/NoInversor_G0.88_OK.xlsx
+++ b/TP2/Ej1_Bodes/NoInversor_G0.88_OK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858C0056-0600-4293-BA77-A703B81498C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DC4C46-6412-4F95-A478-3B305E519B66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -108,6 +108,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,7 +394,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,10 +491,12 @@
         <v>-8</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="4">
+        <v>0.187</v>
+      </c>
       <c r="M3" s="1">
         <f>(H3*12000)/(H3-L3)</f>
-        <v>12000</v>
+        <v>31858.407079646022</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -526,10 +531,12 @@
         <v>-24</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="L4" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
       <c r="M4" s="1">
         <f t="shared" ref="M4:M12" si="2">(H4*12000)/(H4-L4)</f>
-        <v>12000</v>
+        <v>17560.9756097561</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -564,10 +571,12 @@
         <v>-55</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="4">
+        <v>0.06</v>
+      </c>
       <c r="M5" s="1">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -602,10 +611,12 @@
         <v>-80</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="4">
+        <v>2.9000000000000001E-2</v>
+      </c>
       <c r="M6" s="1">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>14035.087719298244</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -640,10 +651,12 @@
         <v>-119</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="M7" s="1">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>13457.943925233645</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -678,10 +691,12 @@
         <v>-125</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="4">
+        <v>1.2E-2</v>
+      </c>
       <c r="M8" s="1">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>13333.333333333334</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -716,10 +731,12 @@
         <v>-132</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="4">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="M9" s="1">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>13211.009174311926</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -754,10 +771,12 @@
         <v>-140</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="4">
+        <v>0.01</v>
+      </c>
       <c r="M10" s="1">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>13090.90909090909</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -792,10 +811,12 @@
         <v>-160</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="4">
+        <v>9.4999999999999998E-3</v>
+      </c>
       <c r="M11" s="1">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>13031.674208144796</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -830,10 +851,12 @@
         <v>-178</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="4">
+        <v>8.5000000000000006E-3</v>
+      </c>
       <c r="M12" s="1">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>12914.798206278028</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
